--- a/trend_results/Lakes/LakeWestmere_e88f03fff6.xlsx
+++ b/trend_results/Lakes/LakeWestmere_e88f03fff6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="49">
   <si>
     <t>site name</t>
   </si>
@@ -118,16 +118,25 @@
     <t>Lake</t>
   </si>
   <si>
+    <t>Extremely likely improving</t>
+  </si>
+  <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
     <t>Likely improving</t>
   </si>
   <si>
     <t>Unlikely improving</t>
   </si>
   <si>
-    <t>Exceptionally unlikely increasing</t>
-  </si>
-  <si>
-    <t>As likely as not improving</t>
+    <t>Extremely unlikely increasing</t>
+  </si>
+  <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>Very likely improving</t>
   </si>
   <si>
     <t>Whanganui District</t>
@@ -509,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W8"/>
+  <dimension ref="A1:W11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -603,31 +612,31 @@
         <v>31</v>
       </c>
       <c r="F2">
-        <v>0.743103430778994</v>
+        <v>0.973372633926634</v>
       </c>
       <c r="G2">
-        <v>0.107142857142857</v>
+        <v>0.147058823529412</v>
       </c>
       <c r="H2">
-        <v>0.821428571428571</v>
+        <v>0.764705882352941</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>21.5</v>
+        <v>19.5</v>
       </c>
       <c r="K2">
-        <v>-2.33057326831708</v>
+        <v>-6.92417061611374</v>
       </c>
       <c r="L2">
-        <v>-8.388767563769269</v>
+        <v>-11.8775528047841</v>
       </c>
       <c r="M2">
-        <v>2.14175757416275</v>
+        <v>-1.03905840564878</v>
       </c>
       <c r="N2">
-        <v>-10.8398756665911</v>
+        <v>-35.5085672621218</v>
       </c>
       <c r="O2" t="s">
         <v>33</v>
@@ -642,19 +651,19 @@
         <v>5581972.70518</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="U2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="V2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="W2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -674,28 +683,28 @@
         <v>32</v>
       </c>
       <c r="F3">
-        <v>0.803188838024357</v>
+        <v>0.493958655237434</v>
       </c>
       <c r="G3">
-        <v>0.285714285714286</v>
+        <v>0.205882352941176</v>
       </c>
       <c r="H3">
-        <v>0.357142857142857</v>
+        <v>0.411764705882353</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>-2.34255921743258</v>
+        <v>-2.11415503577451</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1.25960791207851</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -704,7 +713,7 @@
         <v>33</v>
       </c>
       <c r="P3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q3">
         <v>1770929.51287</v>
@@ -713,19 +722,19 @@
         <v>5581972.70518</v>
       </c>
       <c r="S3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="T3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="U3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="V3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="W3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -742,40 +751,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4">
-        <v>0.299886570390508</v>
+        <v>0.8919461691991351</v>
       </c>
       <c r="G4">
-        <v>0.208333333333333</v>
+        <v>0.242424242424242</v>
       </c>
       <c r="H4">
-        <v>0.875</v>
+        <v>0.787878787878788</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.0418243837397184</v>
+        <v>0.0386487674794368</v>
       </c>
       <c r="K4">
-        <v>0.0038203318422122</v>
+        <v>-0.0074345058728973</v>
       </c>
       <c r="L4">
-        <v>-0.0105302950525896</v>
+        <v>-0.0195896059475785</v>
       </c>
       <c r="M4">
-        <v>0.0382098634262895</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>9.13422147708601</v>
+        <v>-19.2360749326685</v>
       </c>
       <c r="O4" t="s">
         <v>33</v>
       </c>
       <c r="P4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q4">
         <v>1770929.51287</v>
@@ -784,19 +793,19 @@
         <v>5581972.70518</v>
       </c>
       <c r="S4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="T4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="U4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="V4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="W4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -816,19 +825,19 @@
         <v>32</v>
       </c>
       <c r="F5">
-        <v>0.10512039500015</v>
+        <v>0.206935307372846</v>
       </c>
       <c r="G5">
-        <v>0.428571428571429</v>
+        <v>0.441176470588235</v>
       </c>
       <c r="H5">
-        <v>0.571428571428571</v>
+        <v>0.5588235294117651</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.0135</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -837,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0112157235120178</v>
+        <v>0.0063091445003752</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -846,7 +855,7 @@
         <v>33</v>
       </c>
       <c r="P5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q5">
         <v>1770929.51287</v>
@@ -855,19 +864,19 @@
         <v>5581972.70518</v>
       </c>
       <c r="S5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="T5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="U5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="V5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="W5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -887,37 +896,37 @@
         <v>31</v>
       </c>
       <c r="F6">
-        <v>0.0036844083554139</v>
+        <v>0.029342534036473</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.958333333333333</v>
+        <v>0.9696969696969699</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.865</v>
+        <v>7.68</v>
       </c>
       <c r="K6">
-        <v>-0.53274426118258</v>
+        <v>-0.263379704134687</v>
       </c>
       <c r="L6">
-        <v>-0.80595327487181</v>
+        <v>-0.545912004242296</v>
       </c>
       <c r="M6">
-        <v>-0.234584025837244</v>
+        <v>-0.0344317531758553</v>
       </c>
       <c r="N6">
-        <v>-6.77360789806205</v>
+        <v>-3.4294232309204</v>
       </c>
       <c r="O6" t="s">
         <v>33</v>
       </c>
       <c r="P6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q6">
         <v>1770929.51287</v>
@@ -926,16 +935,16 @@
         <v>5581972.70518</v>
       </c>
       <c r="S6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="T6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="U6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="V6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -955,37 +964,37 @@
         <v>31</v>
       </c>
       <c r="F7">
-        <v>0.767694923056952</v>
+        <v>0.992497906785223</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.928571428571429</v>
+        <v>0.882352941176471</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1.375</v>
+        <v>1.3</v>
       </c>
       <c r="K7">
-        <v>-0.0298369207207758</v>
+        <v>-0.138419926650367</v>
       </c>
       <c r="L7">
-        <v>-0.161949785248823</v>
+        <v>-0.24507834262408</v>
       </c>
       <c r="M7">
-        <v>0.0695336008824384</v>
+        <v>-0.039144856974564</v>
       </c>
       <c r="N7">
-        <v>-2.16995787060187</v>
+        <v>-10.6476866654128</v>
       </c>
       <c r="O7" t="s">
         <v>33</v>
       </c>
       <c r="P7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="Q7">
         <v>1770929.51287</v>
@@ -994,19 +1003,19 @@
         <v>5581972.70518</v>
       </c>
       <c r="S7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="T7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="U7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="V7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="W7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1026,13 +1035,13 @@
         <v>31</v>
       </c>
       <c r="F8">
-        <v>0.429436616956685</v>
+        <v>0.677137556750501</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0.911764705882353</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1041,22 +1050,22 @@
         <v>0.157</v>
       </c>
       <c r="K8">
-        <v>0.0022183127967182</v>
+        <v>-0.0042669392523364</v>
       </c>
       <c r="L8">
-        <v>-0.0175661108596188</v>
+        <v>-0.0261470956263139</v>
       </c>
       <c r="M8">
-        <v>0.0239549679047386</v>
+        <v>0.0200684659556907</v>
       </c>
       <c r="N8">
-        <v>1.41293808708168</v>
+        <v>-2.71779570212513</v>
       </c>
       <c r="O8" t="s">
         <v>33</v>
       </c>
       <c r="P8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q8">
         <v>1770929.51287</v>
@@ -1065,19 +1074,232 @@
         <v>5581972.70518</v>
       </c>
       <c r="S8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="T8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="U8" t="s">
+        <v>43</v>
+      </c>
+      <c r="V8" t="s">
+        <v>44</v>
+      </c>
+      <c r="W8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9">
+        <v>0.778793918061079</v>
+      </c>
+      <c r="G9">
+        <v>0.108695652173913</v>
+      </c>
+      <c r="H9">
+        <v>0.7173913043478261</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>16.5</v>
+      </c>
+      <c r="K9">
+        <v>-0.593124672603457</v>
+      </c>
+      <c r="L9">
+        <v>-2.99548849787002</v>
+      </c>
+      <c r="M9">
+        <v>0.8544836402079951</v>
+      </c>
+      <c r="N9">
+        <v>-3.5946949854755</v>
+      </c>
+      <c r="O9" t="s">
+        <v>33</v>
+      </c>
+      <c r="P9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q9">
+        <v>1770929.51287</v>
+      </c>
+      <c r="R9">
+        <v>5581972.70518</v>
+      </c>
+      <c r="S9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T9" t="s">
+        <v>42</v>
+      </c>
+      <c r="U9" t="s">
+        <v>43</v>
+      </c>
+      <c r="V9" t="s">
+        <v>44</v>
+      </c>
+      <c r="W9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10">
+        <v>0.949341745911001</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0.847826086956522</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1.305</v>
+      </c>
+      <c r="K10">
+        <v>-0.0391339285714286</v>
+      </c>
+      <c r="L10">
+        <v>-0.104552314078911</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>-2.9987684729064</v>
+      </c>
+      <c r="O10" t="s">
+        <v>33</v>
+      </c>
+      <c r="P10" t="s">
         <v>40</v>
       </c>
-      <c r="V8" t="s">
+      <c r="Q10">
+        <v>1770929.51287</v>
+      </c>
+      <c r="R10">
+        <v>5581972.70518</v>
+      </c>
+      <c r="S10" t="s">
         <v>41</v>
       </c>
-      <c r="W8" t="s">
-        <v>45</v>
+      <c r="T10" t="s">
+        <v>42</v>
+      </c>
+      <c r="U10" t="s">
+        <v>43</v>
+      </c>
+      <c r="V10" t="s">
+        <v>44</v>
+      </c>
+      <c r="W10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11">
+        <v>0.181575457333587</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0.891304347826087</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0.137</v>
+      </c>
+      <c r="K11">
+        <v>0.0047942391832766</v>
+      </c>
+      <c r="L11">
+        <v>-0.0022052434871707</v>
+      </c>
+      <c r="M11">
+        <v>0.0168039196833603</v>
+      </c>
+      <c r="N11">
+        <v>3.499444659326</v>
+      </c>
+      <c r="O11" t="s">
+        <v>33</v>
+      </c>
+      <c r="P11" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q11">
+        <v>1770929.51287</v>
+      </c>
+      <c r="R11">
+        <v>5581972.70518</v>
+      </c>
+      <c r="S11" t="s">
+        <v>41</v>
+      </c>
+      <c r="T11" t="s">
+        <v>42</v>
+      </c>
+      <c r="U11" t="s">
+        <v>43</v>
+      </c>
+      <c r="V11" t="s">
+        <v>44</v>
+      </c>
+      <c r="W11" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/trend_results/Lakes/LakeWestmere_e88f03fff6.xlsx
+++ b/trend_results/Lakes/LakeWestmere_e88f03fff6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="51">
   <si>
     <t>site name</t>
   </si>
@@ -88,6 +88,9 @@
     <t>Lake Westmere</t>
   </si>
   <si>
+    <t>Cyanobacteria Biovolume</t>
+  </si>
+  <si>
     <t>Chlorophyll A</t>
   </si>
   <si>
@@ -118,15 +121,15 @@
     <t>Lake</t>
   </si>
   <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
     <t>Extremely likely improving</t>
   </si>
   <si>
     <t>As likely as not improving</t>
   </si>
   <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
     <t>Unlikely improving</t>
   </si>
   <si>
@@ -149,6 +152,9 @@
   </si>
   <si>
     <t>Whai_7b</t>
+  </si>
+  <si>
+    <t>mg chl-a /m3</t>
   </si>
   <si>
     <t>mg/m2</t>
@@ -518,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -609,40 +615,40 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2">
-        <v>0.973372633926634</v>
+        <v>0.757176376451805</v>
       </c>
       <c r="G2">
-        <v>0.147058823529412</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.764705882352941</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>19.5</v>
+        <v>0.0406</v>
       </c>
       <c r="K2">
-        <v>-6.92417061611374</v>
+        <v>-0.0045490935612822</v>
       </c>
       <c r="L2">
-        <v>-11.8775528047841</v>
+        <v>-0.0150591223801962</v>
       </c>
       <c r="M2">
-        <v>-1.03905840564878</v>
+        <v>0.0109449322889312</v>
       </c>
       <c r="N2">
-        <v>-35.5085672621218</v>
+        <v>-11.2046639440449</v>
       </c>
       <c r="O2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q2">
         <v>1770929.51287</v>
@@ -651,19 +657,19 @@
         <v>5581972.70518</v>
       </c>
       <c r="S2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -683,37 +689,37 @@
         <v>32</v>
       </c>
       <c r="F3">
-        <v>0.493958655237434</v>
+        <v>0.973372633926634</v>
       </c>
       <c r="G3">
-        <v>0.205882352941176</v>
+        <v>0.147058823529412</v>
       </c>
       <c r="H3">
-        <v>0.411764705882353</v>
+        <v>0.764705882352941</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>6</v>
+        <v>19.5</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>-6.92417061611374</v>
       </c>
       <c r="L3">
-        <v>-2.11415503577451</v>
+        <v>-11.8775528047841</v>
       </c>
       <c r="M3">
-        <v>1.25960791207851</v>
+        <v>-1.03905840564878</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>-35.5085672621218</v>
       </c>
       <c r="O3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q3">
         <v>1770929.51287</v>
@@ -722,19 +728,19 @@
         <v>5581972.70518</v>
       </c>
       <c r="S3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -751,40 +757,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F4">
-        <v>0.8919461691991351</v>
+        <v>0.493958655237434</v>
       </c>
       <c r="G4">
-        <v>0.242424242424242</v>
+        <v>0.205882352941176</v>
       </c>
       <c r="H4">
-        <v>0.787878787878788</v>
+        <v>0.411764705882353</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0.0386487674794368</v>
+        <v>6</v>
       </c>
       <c r="K4">
-        <v>-0.0074345058728973</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>-0.0195896059475785</v>
+        <v>-2.11415503577451</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1.25960791207851</v>
       </c>
       <c r="N4">
-        <v>-19.2360749326685</v>
+        <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q4">
         <v>1770929.51287</v>
@@ -793,19 +799,19 @@
         <v>5581972.70518</v>
       </c>
       <c r="S4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -825,37 +831,37 @@
         <v>32</v>
       </c>
       <c r="F5">
-        <v>0.206935307372846</v>
+        <v>0.8919461691991351</v>
       </c>
       <c r="G5">
-        <v>0.441176470588235</v>
+        <v>0.242424242424242</v>
       </c>
       <c r="H5">
-        <v>0.5588235294117651</v>
+        <v>0.787878787878788</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.008500000000000001</v>
+        <v>0.0386487674794368</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>-0.0074345058728973</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>-0.0195896059475785</v>
       </c>
       <c r="M5">
-        <v>0.0063091445003752</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>-19.2360749326685</v>
       </c>
       <c r="O5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q5">
         <v>1770929.51287</v>
@@ -864,19 +870,19 @@
         <v>5581972.70518</v>
       </c>
       <c r="S5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -893,37 +899,37 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F6">
-        <v>0.029342534036473</v>
+        <v>0.206935307372846</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.441176470588235</v>
       </c>
       <c r="H6">
-        <v>0.9696969696969699</v>
+        <v>0.5588235294117651</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>7.68</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="K6">
-        <v>-0.263379704134687</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>-0.545912004242296</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>-0.0344317531758553</v>
+        <v>0.0063091445003752</v>
       </c>
       <c r="N6">
-        <v>-3.4294232309204</v>
+        <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P6" t="s">
         <v>38</v>
@@ -935,16 +941,19 @@
         <v>5581972.70518</v>
       </c>
       <c r="S6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V6" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="W6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -961,37 +970,37 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F7">
-        <v>0.992497906785223</v>
+        <v>0.029342534036473</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.882352941176471</v>
+        <v>0.9696969696969699</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1.3</v>
+        <v>7.68</v>
       </c>
       <c r="K7">
-        <v>-0.138419926650367</v>
+        <v>-0.263379704134687</v>
       </c>
       <c r="L7">
-        <v>-0.24507834262408</v>
+        <v>-0.545912004242296</v>
       </c>
       <c r="M7">
-        <v>-0.039144856974564</v>
+        <v>-0.0344317531758553</v>
       </c>
       <c r="N7">
-        <v>-10.6476866654128</v>
+        <v>-3.4294232309204</v>
       </c>
       <c r="O7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P7" t="s">
         <v>39</v>
@@ -1003,19 +1012,16 @@
         <v>5581972.70518</v>
       </c>
       <c r="S7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V7" t="s">
-        <v>44</v>
-      </c>
-      <c r="W7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1032,40 +1038,40 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F8">
-        <v>0.677137556750501</v>
+        <v>0.992497906785223</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.911764705882353</v>
+        <v>0.882352941176471</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.157</v>
+        <v>1.3</v>
       </c>
       <c r="K8">
-        <v>-0.0042669392523364</v>
+        <v>-0.138419926650367</v>
       </c>
       <c r="L8">
-        <v>-0.0261470956263139</v>
+        <v>-0.24507834262408</v>
       </c>
       <c r="M8">
-        <v>0.0200684659556907</v>
+        <v>-0.039144856974564</v>
       </c>
       <c r="N8">
-        <v>-2.71779570212513</v>
+        <v>-10.6476866654128</v>
       </c>
       <c r="O8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P8" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="Q8">
         <v>1770929.51287</v>
@@ -1074,19 +1080,19 @@
         <v>5581972.70518</v>
       </c>
       <c r="S8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1094,49 +1100,49 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F9">
-        <v>0.778793918061079</v>
+        <v>0.677137556750501</v>
       </c>
       <c r="G9">
-        <v>0.108695652173913</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>0.7173913043478261</v>
+        <v>0.911764705882353</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>16.5</v>
+        <v>0.157</v>
       </c>
       <c r="K9">
-        <v>-0.593124672603457</v>
+        <v>-0.0042669392523364</v>
       </c>
       <c r="L9">
-        <v>-2.99548849787002</v>
+        <v>-0.0261470956263139</v>
       </c>
       <c r="M9">
-        <v>0.8544836402079951</v>
+        <v>0.0200684659556907</v>
       </c>
       <c r="N9">
-        <v>-3.5946949854755</v>
+        <v>-2.71779570212513</v>
       </c>
       <c r="O9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q9">
         <v>1770929.51287</v>
@@ -1145,19 +1151,19 @@
         <v>5581972.70518</v>
       </c>
       <c r="S9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1165,7 +1171,7 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C10">
         <v>10</v>
@@ -1174,40 +1180,40 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F10">
-        <v>0.949341745911001</v>
+        <v>0.778793918061079</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="H10">
-        <v>0.847826086956522</v>
+        <v>0.7173913043478261</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>1.305</v>
+        <v>16.5</v>
       </c>
       <c r="K10">
-        <v>-0.0391339285714286</v>
+        <v>-0.593124672603457</v>
       </c>
       <c r="L10">
-        <v>-0.104552314078911</v>
+        <v>-2.99548849787002</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.8544836402079951</v>
       </c>
       <c r="N10">
-        <v>-2.9987684729064</v>
+        <v>-3.5946949854755</v>
       </c>
       <c r="O10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P10" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Q10">
         <v>1770929.51287</v>
@@ -1216,19 +1222,19 @@
         <v>5581972.70518</v>
       </c>
       <c r="S10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="W10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1245,40 +1251,40 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F11">
-        <v>0.181575457333587</v>
+        <v>0.949341745911001</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.891304347826087</v>
+        <v>0.847826086956522</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.137</v>
+        <v>1.305</v>
       </c>
       <c r="K11">
-        <v>0.0047942391832766</v>
+        <v>-0.0391339285714286</v>
       </c>
       <c r="L11">
-        <v>-0.0022052434871707</v>
+        <v>-0.104552314078911</v>
       </c>
       <c r="M11">
-        <v>0.0168039196833603</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>3.499444659326</v>
+        <v>-2.9987684729064</v>
       </c>
       <c r="O11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="Q11">
         <v>1770929.51287</v>
@@ -1287,19 +1293,90 @@
         <v>5581972.70518</v>
       </c>
       <c r="S11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T11" t="s">
+        <v>43</v>
+      </c>
+      <c r="U11" t="s">
+        <v>44</v>
+      </c>
+      <c r="V11" t="s">
+        <v>45</v>
+      </c>
+      <c r="W11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12">
+        <v>0.181575457333587</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0.891304347826087</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0.137</v>
+      </c>
+      <c r="K12">
+        <v>0.0047942391832766</v>
+      </c>
+      <c r="L12">
+        <v>-0.0022052434871707</v>
+      </c>
+      <c r="M12">
+        <v>0.0168039196833603</v>
+      </c>
+      <c r="N12">
+        <v>3.499444659326</v>
+      </c>
+      <c r="O12" t="s">
+        <v>34</v>
+      </c>
+      <c r="P12" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q12">
+        <v>1770929.51287</v>
+      </c>
+      <c r="R12">
+        <v>5581972.70518</v>
+      </c>
+      <c r="S12" t="s">
         <v>42</v>
       </c>
-      <c r="U11" t="s">
+      <c r="T12" t="s">
         <v>43</v>
       </c>
-      <c r="V11" t="s">
+      <c r="U12" t="s">
         <v>44</v>
       </c>
-      <c r="W11" t="s">
-        <v>48</v>
+      <c r="V12" t="s">
+        <v>45</v>
+      </c>
+      <c r="W12" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
